--- a/data/trans_orig/IQ17A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ17A-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F8D905F-8F7C-4F50-9BEC-67269A979FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F468ED5F-E483-4D64-87AD-291875A92C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E9B2D330-4480-460B-9F76-92D7A2114F87}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C57A2C81-5DE8-4360-9E07-CEFE3D0D3190}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -89,1756 +89,1756 @@
     <t>16,9%</t>
   </si>
   <si>
-    <t>67,25%</t>
+    <t>67,11%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>29,93%</t>
+    <t>29,66%</t>
   </si>
   <si>
     <t>17,06%</t>
   </si>
   <si>
-    <t>67,39%</t>
+    <t>67,17%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>64,47%</t>
+    <t>65,0%</t>
   </si>
   <si>
     <t>21,98%</t>
   </si>
   <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2012 (Tasa respuesta: 22,63%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2016 (Tasa respuesta: 20,46%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
   </si>
   <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2012 (Tasa respuesta: 22,63%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2015 (Tasa respuesta: 20,46%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>94,41%</t>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>92,84%</t>
   </si>
   <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>91,48%</t>
   </si>
   <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
+    <t>93,93%</t>
   </si>
 </sst>
 </file>
@@ -2250,7 +2250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF018F04-D735-462F-A927-DB9F6F067EBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70398EF-3F7B-40A9-92E3-5B5E6C94BA08}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3171,13 +3171,13 @@
         <v>3158</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,10 +3192,10 @@
         <v>26530</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>28</v>
@@ -3207,13 +3207,13 @@
         <v>18486</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -3222,13 +3222,13 @@
         <v>45015</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,7 +3284,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5">
         <v>10</v>
@@ -3317,7 +3317,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,7 +3368,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,7 +3419,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3434,7 +3434,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,7 +3470,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3500,13 @@
         <v>673</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3515,13 +3515,13 @@
         <v>641</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3530,13 +3530,13 @@
         <v>1313</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3551,13 @@
         <v>2630</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>4</v>
@@ -3581,13 +3581,13 @@
         <v>2630</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3602,13 @@
         <v>4048</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -3617,10 +3617,10 @@
         <v>3085</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>72</v>
@@ -4787,7 +4787,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -4796,13 +4796,13 @@
         <v>448</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M51" s="7">
         <v>2</v>
@@ -4811,13 +4811,13 @@
         <v>1143</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4883,13 @@
         <v>1310</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -4898,13 +4898,13 @@
         <v>641</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M53" s="7">
         <v>3</v>
@@ -4913,13 +4913,13 @@
         <v>1951</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4934,13 @@
         <v>4163</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4964,13 +4964,13 @@
         <v>4163</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +4985,13 @@
         <v>9621</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H55" s="7">
         <v>17</v>
@@ -5000,13 +5000,13 @@
         <v>10763</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M55" s="7">
         <v>31</v>
@@ -5015,13 +5015,13 @@
         <v>20384</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5036,13 @@
         <v>145405</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H56" s="7">
         <v>178</v>
@@ -5051,13 +5051,13 @@
         <v>118670</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M56" s="7">
         <v>396</v>
@@ -5066,13 +5066,13 @@
         <v>264076</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,7 +5128,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +5149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECA580E-DEC8-4B70-9CD6-DAC04D1DBA70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E842AC3-3954-4E83-919C-0F455A0312D5}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5166,7 +5166,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5279,7 +5279,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5309,7 +5309,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,7 +5330,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5360,7 +5360,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,7 +5381,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5411,7 +5411,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,7 +5432,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5462,7 +5462,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,7 +5483,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5513,7 +5513,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,7 +5534,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5564,7 +5564,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,7 +5585,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5594,13 +5594,13 @@
         <v>1728</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5609,13 +5609,13 @@
         <v>1728</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,7 +5633,7 @@
         <v>28</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>34</v>
@@ -5645,10 +5645,10 @@
         <v>3194</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>28</v>
@@ -5660,10 +5660,10 @@
         <v>3931</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>28</v>
@@ -5740,7 +5740,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5755,7 +5755,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5770,7 +5770,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,7 +5791,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5821,7 +5821,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,7 +5842,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5857,7 +5857,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -5872,7 +5872,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,7 +5893,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5923,7 +5923,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,7 +5944,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5995,7 +5995,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -6004,13 +6004,13 @@
         <v>2269</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -6019,13 +6019,13 @@
         <v>2269</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,13 +6040,13 @@
         <v>3071</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -6055,13 +6055,13 @@
         <v>2807</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -6070,13 +6070,13 @@
         <v>5879</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,13 +6091,13 @@
         <v>27904</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -6106,13 +6106,13 @@
         <v>22302</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>70</v>
@@ -6121,13 +6121,13 @@
         <v>50204</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,7 +6183,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5">
         <v>10</v>
@@ -6201,7 +6201,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6231,7 +6231,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,7 +6252,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,7 +6303,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -6312,13 +6312,13 @@
         <v>480</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6327,13 +6327,13 @@
         <v>480</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,7 +6354,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,13 +6399,13 @@
         <v>697</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6429,13 +6429,13 @@
         <v>697</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,10 +6519,10 @@
         <v>234</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -6531,7 +6531,7 @@
         <v>12469</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>97</v>
+        <v>236</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>237</v>
@@ -6570,10 +6570,10 @@
         <v>242</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M29" s="7">
         <v>125</v>
@@ -6582,7 +6582,7 @@
         <v>84977</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>244</v>
+        <v>53</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>245</v>
@@ -7138,7 +7138,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -7342,7 +7342,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -7426,7 +7426,7 @@
         <v>288</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>287</v>
+        <v>118</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>289</v>
@@ -7459,7 +7459,7 @@
         <v>294</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>295</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7474,13 @@
         <v>35579</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H47" s="7">
         <v>59</v>
@@ -7489,13 +7489,13 @@
         <v>44753</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M47" s="7">
         <v>109</v>
@@ -7504,13 +7504,13 @@
         <v>80333</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,22 +7599,22 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,22 +7650,22 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7695,13 @@
         <v>480</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>308</v>
+        <v>62</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -7710,13 +7710,13 @@
         <v>480</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7752,22 +7752,22 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7782,13 +7782,13 @@
         <v>1321</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>39</v>
+        <v>310</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -7803,7 +7803,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -7812,13 +7812,13 @@
         <v>1321</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7833,13 +7833,13 @@
         <v>4574</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H54" s="7">
         <v>9</v>
@@ -7851,10 +7851,10 @@
         <v>282</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="M54" s="7">
         <v>15</v>
@@ -7863,13 +7863,13 @@
         <v>10655</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7884,13 +7884,13 @@
         <v>24635</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H55" s="7">
         <v>21</v>
@@ -7899,13 +7899,13 @@
         <v>15194</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M55" s="7">
         <v>57</v>
@@ -7914,13 +7914,13 @@
         <v>39830</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7935,13 +7935,13 @@
         <v>138701</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H56" s="7">
         <v>201</v>
@@ -7950,13 +7950,13 @@
         <v>139118</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M56" s="7">
         <v>400</v>
@@ -7965,13 +7965,13 @@
         <v>277820</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8027,7 +8027,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -8048,7 +8048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC0A105-F36E-4707-BF07-0298B103D3B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC030260-9A29-4010-87C3-035F4587948D}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8714,7 +8714,7 @@
         <v>586</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>10</v>
@@ -8837,13 +8837,13 @@
         <v>652</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8873,7 +8873,7 @@
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8888,13 +8888,13 @@
         <v>764</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -8903,13 +8903,13 @@
         <v>835</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -8918,13 +8918,13 @@
         <v>1599</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8939,13 +8939,13 @@
         <v>1310</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -8954,13 +8954,13 @@
         <v>2712</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -8969,13 +8969,13 @@
         <v>4023</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8990,13 +8990,13 @@
         <v>22658</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -9005,13 +9005,13 @@
         <v>15385</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M20" s="7">
         <v>54</v>
@@ -9020,13 +9020,13 @@
         <v>38042</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9082,7 +9082,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5">
         <v>10</v>
@@ -9115,7 +9115,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9130,7 +9130,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9166,7 +9166,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>373</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9217,7 +9217,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -9232,7 +9232,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>373</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9262,13 +9262,13 @@
         <v>536</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -9277,13 +9277,13 @@
         <v>536</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9313,13 +9313,13 @@
         <v>617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -9328,13 +9328,13 @@
         <v>617</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9364,13 +9364,13 @@
         <v>617</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -9379,13 +9379,13 @@
         <v>617</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9400,13 +9400,13 @@
         <v>5195</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -9415,13 +9415,13 @@
         <v>5604</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -9430,10 +9430,10 @@
         <v>10800</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>390</v>
+        <v>225</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>391</v>
@@ -9457,7 +9457,7 @@
         <v>393</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>104</v>
+        <v>394</v>
       </c>
       <c r="H29" s="7">
         <v>74</v>
@@ -9466,13 +9466,13 @@
         <v>44870</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M29" s="7">
         <v>138</v>
@@ -9481,13 +9481,13 @@
         <v>87597</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9561,7 +9561,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>92</v>
+        <v>401</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -9591,7 +9591,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9612,7 +9612,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>92</v>
+        <v>401</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9627,7 +9627,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9642,7 +9642,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9663,7 +9663,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>92</v>
+        <v>401</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -9672,13 +9672,13 @@
         <v>657</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -9687,13 +9687,13 @@
         <v>657</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>404</v>
+        <v>198</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9714,7 +9714,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>92</v>
+        <v>401</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9744,7 +9744,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9765,7 +9765,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>92</v>
+        <v>401</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9780,7 +9780,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9816,7 +9816,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>92</v>
+        <v>401</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9831,7 +9831,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9861,13 +9861,13 @@
         <v>3858</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -9876,10 +9876,10 @@
         <v>2389</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>410</v>
+        <v>155</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>411</v>
@@ -9918,7 +9918,7 @@
         <v>416</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>417</v>
+        <v>112</v>
       </c>
       <c r="H38" s="7">
         <v>47</v>
@@ -9927,13 +9927,13 @@
         <v>27528</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M38" s="7">
         <v>87</v>
@@ -9942,13 +9942,13 @@
         <v>53408</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>422</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>423</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10022,7 +10022,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -10052,7 +10052,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>424</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10073,7 +10073,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -10103,7 +10103,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>424</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10124,7 +10124,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>424</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10175,7 +10175,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>424</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10226,7 +10226,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -10256,7 +10256,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>424</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10277,7 +10277,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -10307,7 +10307,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>424</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10322,13 +10322,13 @@
         <v>2698</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>348</v>
+        <v>423</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>425</v>
+        <v>128</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H46" s="7">
         <v>5</v>
@@ -10337,13 +10337,13 @@
         <v>3961</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M46" s="7">
         <v>9</v>
@@ -10352,13 +10352,13 @@
         <v>6659</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10373,13 +10373,13 @@
         <v>34362</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>435</v>
+        <v>136</v>
       </c>
       <c r="H47" s="7">
         <v>46</v>
@@ -10388,13 +10388,13 @@
         <v>33180</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M47" s="7">
         <v>95</v>
@@ -10403,13 +10403,13 @@
         <v>67542</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10483,7 +10483,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -10498,7 +10498,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -10534,7 +10534,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -10543,13 +10543,13 @@
         <v>586</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -10558,13 +10558,13 @@
         <v>586</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>283</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10585,7 +10585,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -10594,13 +10594,13 @@
         <v>657</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -10609,13 +10609,13 @@
         <v>657</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>378</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10636,7 +10636,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -10645,13 +10645,13 @@
         <v>536</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -10660,13 +10660,13 @@
         <v>536</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10681,13 +10681,13 @@
         <v>652</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>159</v>
+        <v>453</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -10702,7 +10702,7 @@
         <v>10</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -10717,7 +10717,7 @@
         <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10732,13 +10732,13 @@
         <v>764</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>457</v>
+        <v>285</v>
       </c>
       <c r="H54" s="7">
         <v>2</v>
@@ -10747,13 +10747,13 @@
         <v>1452</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
@@ -10762,13 +10762,13 @@
         <v>2216</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>460</v>
+        <v>286</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>10</v>
+        <v>458</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10783,13 +10783,13 @@
         <v>13062</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H55" s="7">
         <v>22</v>
@@ -10798,13 +10798,13 @@
         <v>14666</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M55" s="7">
         <v>43</v>
@@ -10813,13 +10813,13 @@
         <v>27729</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>469</v>
+        <v>232</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10834,13 +10834,13 @@
         <v>130988</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>472</v>
+        <v>275</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H56" s="7">
         <v>194</v>
@@ -10849,13 +10849,13 @@
         <v>124650</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M56" s="7">
         <v>384</v>
@@ -10864,13 +10864,13 @@
         <v>255637</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10926,7 +10926,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -10947,7 +10947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCAD15D-7987-4FAB-B2FA-8C5E21F75B07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB78B1E5-A374-42D3-A7C2-E7DDB60AA3D1}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10964,7 +10964,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -11092,7 +11092,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -11107,7 +11107,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -11143,7 +11143,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -11158,7 +11158,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -11194,7 +11194,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -11209,7 +11209,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -11245,7 +11245,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11296,7 +11296,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -11347,7 +11347,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -11362,7 +11362,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -11398,7 +11398,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -11413,7 +11413,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11446,7 +11446,7 @@
         <v>28</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>34</v>
@@ -11461,7 +11461,7 @@
         <v>28</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>34</v>
@@ -11538,7 +11538,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -11553,7 +11553,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -11568,7 +11568,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -11589,7 +11589,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -11604,7 +11604,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -11619,7 +11619,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11634,13 +11634,13 @@
         <v>1113</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -11655,7 +11655,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -11664,13 +11664,13 @@
         <v>1113</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -11691,7 +11691,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -11706,7 +11706,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -11721,7 +11721,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11742,7 +11742,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -11757,7 +11757,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11793,7 +11793,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -11808,7 +11808,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -11817,13 +11817,13 @@
         <v>491</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>491</v>
+        <v>144</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11838,13 +11838,13 @@
         <v>1473</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>114</v>
+        <v>489</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -11859,7 +11859,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -11868,13 +11868,13 @@
         <v>1473</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11889,13 +11889,13 @@
         <v>12808</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -11907,7 +11907,7 @@
         <v>28</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>34</v>
@@ -11919,13 +11919,13 @@
         <v>25144</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11981,7 +11981,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5">
         <v>10</v>
@@ -11999,7 +11999,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -12050,7 +12050,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -12080,7 +12080,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>250</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -12101,7 +12101,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -12131,7 +12131,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>250</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -12152,7 +12152,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -12161,13 +12161,13 @@
         <v>733</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -12176,13 +12176,13 @@
         <v>733</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>206</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -12197,13 +12197,13 @@
         <v>944</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>265</v>
+        <v>506</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -12212,13 +12212,13 @@
         <v>777</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -12227,13 +12227,13 @@
         <v>1721</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12248,13 +12248,13 @@
         <v>352</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -12278,7 +12278,7 @@
         <v>352</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
@@ -12299,13 +12299,13 @@
         <v>1754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>66</v>
+        <v>514</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -12314,13 +12314,13 @@
         <v>403</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -12329,13 +12329,13 @@
         <v>2156</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -12350,13 +12350,13 @@
         <v>45569</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H29" s="7">
         <v>43</v>
@@ -12365,13 +12365,13 @@
         <v>27182</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M29" s="7">
         <v>112</v>
@@ -12380,13 +12380,13 @@
         <v>72751</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12454,13 +12454,13 @@
         <v>838</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -12475,7 +12475,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -12484,13 +12484,13 @@
         <v>838</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>249</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12511,7 +12511,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>533</v>
+        <v>294</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -12526,7 +12526,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -12541,7 +12541,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>534</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12562,7 +12562,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>533</v>
+        <v>294</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -12577,7 +12577,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -12592,7 +12592,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>534</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -12613,7 +12613,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>533</v>
+        <v>294</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -12628,7 +12628,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -12643,7 +12643,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>534</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12664,7 +12664,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>533</v>
+        <v>294</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -12679,7 +12679,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -12694,7 +12694,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>534</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12715,7 +12715,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>533</v>
+        <v>294</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -12730,7 +12730,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -12745,7 +12745,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>534</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12760,10 +12760,10 @@
         <v>2703</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>535</v>
@@ -12775,7 +12775,7 @@
         <v>3417</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>536</v>
@@ -12793,10 +12793,10 @@
         <v>538</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>319</v>
+        <v>539</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12811,13 +12811,13 @@
         <v>26311</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H38" s="7">
         <v>32</v>
@@ -12826,13 +12826,13 @@
         <v>21904</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M38" s="7">
         <v>68</v>
@@ -12841,13 +12841,13 @@
         <v>48215</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12936,7 +12936,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -12951,7 +12951,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12987,7 +12987,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -13038,7 +13038,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -13053,7 +13053,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -13068,13 +13068,13 @@
         <v>565</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -13098,13 +13098,13 @@
         <v>565</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -13140,7 +13140,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -13155,7 +13155,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -13170,13 +13170,13 @@
         <v>1086</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -13191,7 +13191,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M45" s="7">
         <v>2</v>
@@ -13200,13 +13200,13 @@
         <v>1086</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>555</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -13251,10 +13251,10 @@
         <v>2643</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>62</v>
+        <v>560</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>560</v>
+        <v>311</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>561</v>
@@ -13278,7 +13278,7 @@
         <v>563</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>564</v>
+        <v>523</v>
       </c>
       <c r="H47" s="7">
         <v>39</v>
@@ -13287,7 +13287,7 @@
         <v>26785</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>243</v>
+        <v>564</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>565</v>
@@ -13382,7 +13382,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>161</v>
+        <v>383</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -13406,13 +13406,13 @@
         <v>838</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>253</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13433,7 +13433,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -13484,7 +13484,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>191</v>
+        <v>318</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -13508,13 +13508,13 @@
         <v>1113</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -13529,13 +13529,13 @@
         <v>565</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -13544,13 +13544,13 @@
         <v>733</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>66</v>
+        <v>576</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>575</v>
+        <v>426</v>
       </c>
       <c r="M52" s="7">
         <v>2</v>
@@ -13559,13 +13559,13 @@
         <v>1298</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>158</v>
+        <v>577</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>253</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -13580,13 +13580,13 @@
         <v>944</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -13595,13 +13595,13 @@
         <v>777</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>486</v>
+        <v>580</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -13610,13 +13610,13 @@
         <v>1721</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>578</v>
+        <v>514</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -13631,13 +13631,13 @@
         <v>1929</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -13664,10 +13664,10 @@
         <v>123</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>153</v>
+        <v>446</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13682,13 +13682,13 @@
         <v>6751</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>584</v>
+        <v>507</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H55" s="7">
         <v>9</v>
@@ -13697,13 +13697,13 @@
         <v>5641</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M55" s="7">
         <v>19</v>
@@ -13712,7 +13712,7 @@
         <v>12392</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>589</v>
+        <v>158</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>590</v>
@@ -13736,10 +13736,10 @@
         <v>592</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>52</v>
+        <v>593</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H56" s="7">
         <v>142</v>
@@ -13748,13 +13748,13 @@
         <v>92772</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M56" s="7">
         <v>312</v>
@@ -13763,10 +13763,10 @@
         <v>207057</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>598</v>
+        <v>82</v>
       </c>
       <c r="Q56" s="7" t="s">
         <v>599</v>
@@ -13825,7 +13825,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
